--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_50_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="327">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -91,931 +91,913 @@
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.995+/-0.002</t>
-  </si>
-  <si>
-    <t>0.565+/-0.058</t>
+    <t>0.804+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.995+/-0.001</t>
+  </si>
+  <si>
+    <t>0.542+/-0.059</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.191+/-0.024</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804+/-0.001</t>
+  </si>
+  <si>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61+/-0.021</t>
+  </si>
+  <si>
+    <t>0.605+/-0.143</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>0.999+/-0.003</t>
-  </si>
-  <si>
-    <t>0.204+/-0.033</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804+/-0.001</t>
-  </si>
-  <si>
-    <t>0.803+/-0.0</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.613+/-0.02</t>
-  </si>
-  <si>
-    <t>0.603+/-0.146</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.072+/-0.005</t>
-  </si>
-  <si>
-    <t>0.069+/-0.025</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.158+/-0.014</t>
-  </si>
-  <si>
-    <t>0.6+/-0.008</t>
-  </si>
-  <si>
-    <t>0.598+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.282+/-0.002</t>
-  </si>
-  <si>
-    <t>0.28+/-0.014</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.636+/-0.018</t>
-  </si>
-  <si>
-    <t>0.636+/-0.03</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.004+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727+/-0.006</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.706</t>
-  </si>
-  <si>
-    <t>0.329+/-0.007</t>
-  </si>
-  <si>
-    <t>0.321+/-0.017</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.339+/-0.013</t>
-  </si>
-  <si>
-    <t>0.333+/-0.031</t>
-  </si>
-  <si>
-    <t>0.285</t>
+    <t>0.072+/-0.006</t>
+  </si>
+  <si>
+    <t>0.07+/-0.026</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.21+/-0.02</t>
+  </si>
+  <si>
+    <t>0.587+/-0.009</t>
+  </si>
+  <si>
+    <t>0.586+/-0.0</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.277+/-0.003</t>
+  </si>
+  <si>
+    <t>0.277+/-0.018</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.653+/-0.017</t>
+  </si>
+  <si>
+    <t>0.655+/-0.037</t>
+  </si>
+  <si>
+    <t>0.624</t>
   </si>
   <si>
     <t>0.006+/-0.0</t>
   </si>
   <si>
-    <t>0.854+/-0.004</t>
+    <t>0.72+/-0.006</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.318+/-0.006</t>
+  </si>
+  <si>
+    <t>0.312+/-0.015</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.34+/-0.016</t>
+  </si>
+  <si>
+    <t>0.332+/-0.026</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.853+/-0.005</t>
   </si>
   <si>
     <t>0.793+/-0.0</t>
   </si>
   <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.749+/-0.027</t>
-  </si>
-  <si>
-    <t>0.479+/-0.045</t>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.734+/-0.023</t>
+  </si>
+  <si>
+    <t>0.485+/-0.062</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.423+/-0.042</t>
+  </si>
+  <si>
+    <t>0.277+/-0.043</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>4.811+/-0.972</t>
+  </si>
+  <si>
+    <t>0.865+/-0.005</t>
+  </si>
+  <si>
+    <t>0.788+/-0.0</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.878+/-0.028</t>
+  </si>
+  <si>
+    <t>0.439+/-0.041</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.386+/-0.034</t>
+  </si>
+  <si>
+    <t>0.195+/-0.038</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.084+/-0.006</t>
+  </si>
+  <si>
+    <t>0.855+/-0.006</t>
+  </si>
+  <si>
+    <t>0.79+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.847+/-0.045</t>
+  </si>
+  <si>
+    <t>0.451+/-0.045</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.345+/-0.053</t>
+  </si>
+  <si>
+    <t>0.186+/-0.035</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.108+/-0.003</t>
+  </si>
+  <si>
+    <t>0.816+/-0.001</t>
+  </si>
+  <si>
+    <t>0.809+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.747+/-0.011</t>
+  </si>
+  <si>
+    <t>0.663+/-0.065</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.131+/-0.006</t>
+  </si>
+  <si>
+    <t>0.107+/-0.036</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>12.551+/-0.278</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.994+/-0.003</t>
+  </si>
+  <si>
+    <t>0.514+/-0.108</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.997+/-0.005</t>
+  </si>
+  <si>
+    <t>0.118+/-0.031</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.852+/-0.001</t>
+  </si>
+  <si>
+    <t>0.552+/-0.017</t>
+  </si>
+  <si>
+    <t>0.531+/-0.154</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.061+/-0.007</t>
+  </si>
+  <si>
+    <t>0.057+/-0.024</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.242+/-0.019</t>
+  </si>
+  <si>
+    <t>0.675+/-0.014</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.243+/-0.006</t>
+  </si>
+  <si>
+    <t>0.243+/-0.024</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.551+/-0.019</t>
+  </si>
+  <si>
+    <t>0.547+/-0.046</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.794+/-0.002</t>
+  </si>
+  <si>
+    <t>0.792+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.295+/-0.003</t>
+  </si>
+  <si>
+    <t>0.292+/-0.041</t>
+  </si>
+  <si>
+    <t>0.268</t>
+  </si>
+  <si>
+    <t>0.271+/-0.01</t>
+  </si>
+  <si>
+    <t>0.265+/-0.032</t>
+  </si>
+  <si>
+    <t>0.882+/-0.005</t>
+  </si>
+  <si>
+    <t>0.842+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.72+/-0.048</t>
+  </si>
+  <si>
+    <t>0.453+/-0.059</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.357+/-0.076</t>
+  </si>
+  <si>
+    <t>0.219+/-0.057</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>4.217+/-1.197</t>
+  </si>
+  <si>
+    <t>0.902+/-0.004</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.88+/-0.029</t>
+  </si>
+  <si>
+    <t>0.419+/-0.061</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.399+/-0.038</t>
+  </si>
+  <si>
+    <t>0.187+/-0.016</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.082+/-0.006</t>
+  </si>
+  <si>
+    <t>0.899+/-0.004</t>
+  </si>
+  <si>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.88+/-0.028</t>
+  </si>
+  <si>
+    <t>0.399+/-0.047</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.377+/-0.033</t>
+  </si>
+  <si>
+    <t>0.169+/-0.031</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.097+/-0.005</t>
+  </si>
+  <si>
+    <t>0.859+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.755+/-0.018</t>
+  </si>
+  <si>
+    <t>0.598+/-0.14</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.092+/-0.016</t>
+  </si>
+  <si>
+    <t>0.061+/-0.016</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>10.177+/-0.179</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.434+/-0.038</t>
+  </si>
+  <si>
+    <t>0.998+/-0.0</t>
+  </si>
+  <si>
+    <t>0.166+/-0.018</t>
+  </si>
+  <si>
+    <t>0.727+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.565+/-0.008</t>
+  </si>
+  <si>
+    <t>0.558+/-0.077</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.059+/-0.004</t>
+  </si>
+  <si>
+    <t>0.058+/-0.012</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.104+/-0.012</t>
+  </si>
+  <si>
+    <t>0.688+/-0.002</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.397+/-0.004</t>
+  </si>
+  <si>
+    <t>0.396+/-0.034</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.245+/-0.008</t>
+  </si>
+  <si>
+    <t>0.241+/-0.022</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.649+/-0.002</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.362+/-0.002</t>
+  </si>
+  <si>
+    <t>0.359+/-0.022</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.349+/-0.004</t>
+  </si>
+  <si>
+    <t>0.346+/-0.015</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.76+/-0.004</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.695+/-0.034</t>
+  </si>
+  <si>
+    <t>0.452+/-0.06</t>
   </si>
   <si>
     <t>0.467</t>
   </si>
   <si>
-    <t>0.414+/-0.038</t>
-  </si>
-  <si>
-    <t>0.262+/-0.033</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>2.885+/-0.461</t>
-  </si>
-  <si>
-    <t>0.866+/-0.005</t>
-  </si>
-  <si>
-    <t>0.787+/-0.0</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.877+/-0.027</t>
-  </si>
-  <si>
-    <t>0.432+/-0.057</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.388+/-0.034</t>
-  </si>
-  <si>
-    <t>0.192+/-0.038</t>
-  </si>
-  <si>
-    <t>0.066+/-0.007</t>
-  </si>
-  <si>
-    <t>0.854+/-0.006</t>
-  </si>
-  <si>
-    <t>0.788+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.861+/-0.04</t>
-  </si>
-  <si>
-    <t>0.432+/-0.049</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.328+/-0.034</t>
-  </si>
-  <si>
-    <t>0.166+/-0.029</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.081+/-0.004</t>
-  </si>
-  <si>
-    <t>0.817+/-0.001</t>
-  </si>
-  <si>
-    <t>0.809+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.773+/-0.009</t>
-  </si>
-  <si>
-    <t>0.676+/-0.077</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.13+/-0.007</t>
-  </si>
-  <si>
-    <t>0.1+/-0.03</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>10.235+/-0.871</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.853+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.994+/-0.002</t>
-  </si>
-  <si>
-    <t>0.536+/-0.094</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.999+/-0.004</t>
-  </si>
-  <si>
-    <t>0.132+/-0.03</t>
+    <t>0.241+/-0.032</t>
+  </si>
+  <si>
+    <t>0.157+/-0.024</t>
+  </si>
+  <si>
+    <t>3.743+/-0.649</t>
+  </si>
+  <si>
+    <t>0.808+/-0.005</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.844+/-0.032</t>
+  </si>
+  <si>
+    <t>0.359+/-0.047</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.378+/-0.037</t>
+  </si>
+  <si>
+    <t>0.17+/-0.028</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.084+/-0.005</t>
+  </si>
+  <si>
+    <t>0.79+/-0.004</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.826+/-0.04</t>
+  </si>
+  <si>
+    <t>0.389+/-0.054</t>
+  </si>
+  <si>
+    <t>0.31+/-0.027</t>
+  </si>
+  <si>
+    <t>0.149+/-0.026</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.108+/-0.005</t>
+  </si>
+  <si>
+    <t>0.74+/-0.001</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.788+/-0.012</t>
+  </si>
+  <si>
+    <t>0.639+/-0.082</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.082+/-0.002</t>
+  </si>
+  <si>
+    <t>0.059+/-0.015</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>17.399+/-0.617</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.407+/-0.028</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.176+/-0.023</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.696+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.601+/-0.011</t>
+  </si>
+  <si>
+    <t>0.569+/-0.09</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.042+/-0.004</t>
+  </si>
+  <si>
+    <t>0.04+/-0.015</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.101+/-0.013</t>
+  </si>
+  <si>
+    <t>0.638+/-0.004</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.378+/-0.005</t>
+  </si>
+  <si>
+    <t>0.375+/-0.032</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.27+/-0.008</t>
+  </si>
+  <si>
+    <t>0.269+/-0.031</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.623+/-0.002</t>
+  </si>
+  <si>
+    <t>0.622+/-0.0</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.371+/-0.002</t>
+  </si>
+  <si>
+    <t>0.371+/-0.026</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.322+/-0.006</t>
+  </si>
+  <si>
+    <t>0.323+/-0.017</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.009+/-0.002</t>
+  </si>
+  <si>
+    <t>0.748+/-0.009</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71+/-0.028</t>
+  </si>
+  <si>
+    <t>0.417+/-0.043</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.309+/-0.045</t>
+  </si>
+  <si>
+    <t>0.174+/-0.031</t>
+  </si>
+  <si>
+    <t>6.663+/-1.273</t>
+  </si>
+  <si>
+    <t>0.772+/-0.008</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.801+/-0.021</t>
+  </si>
+  <si>
+    <t>0.376+/-0.042</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.345+/-0.033</t>
+  </si>
+  <si>
+    <t>0.171+/-0.018</t>
   </si>
   <si>
     <t>0.143</t>
   </si>
   <si>
-    <t>0.852+/-0.001</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.558+/-0.02</t>
-  </si>
-  <si>
-    <t>0.49+/-0.175</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.058+/-0.006</t>
-  </si>
-  <si>
-    <t>0.05+/-0.024</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>0.096+/-0.004</t>
-  </si>
-  <si>
-    <t>0.736+/-0.007</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.273+/-0.005</t>
-  </si>
-  <si>
-    <t>0.269+/-0.028</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.455+/-0.014</t>
-  </si>
-  <si>
-    <t>0.451+/-0.044</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.774+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.282+/-0.004</t>
-  </si>
-  <si>
-    <t>0.28+/-0.038</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.325+/-0.031</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.887+/-0.005</t>
-  </si>
-  <si>
-    <t>0.841+/-0.0</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.746+/-0.034</t>
-  </si>
-  <si>
-    <t>0.436+/-0.059</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.372+/-0.054</t>
-  </si>
-  <si>
-    <t>0.203+/-0.043</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>2.705+/-0.403</t>
-  </si>
-  <si>
-    <t>0.901+/-0.003</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>0.879+/-0.027</t>
-  </si>
-  <si>
-    <t>0.417+/-0.069</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.392+/-0.038</t>
-  </si>
-  <si>
-    <t>0.197+/-0.028</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.063+/-0.008</t>
-  </si>
-  <si>
-    <t>0.895+/-0.002</t>
-  </si>
-  <si>
-    <t>0.839+/-0.0</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.863+/-0.036</t>
-  </si>
-  <si>
-    <t>0.412+/-0.068</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.357+/-0.024</t>
-  </si>
-  <si>
-    <t>0.178+/-0.043</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.073+/-0.004</t>
-  </si>
-  <si>
-    <t>0.86+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.773+/-0.024</t>
-  </si>
-  <si>
-    <t>0.604+/-0.13</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.096+/-0.009</t>
-  </si>
-  <si>
-    <t>0.069+/-0.021</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>7.968+/-0.513</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.709+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.435+/-0.035</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.17+/-0.021</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.728+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.583+/-0.013</t>
-  </si>
-  <si>
-    <t>0.554+/-0.078</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.06+/-0.004</t>
-  </si>
-  <si>
-    <t>0.057+/-0.011</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.202+/-0.025</t>
-  </si>
-  <si>
-    <t>0.679+/-0.001</t>
-  </si>
-  <si>
-    <t>0.678+/-0.0</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.392+/-0.004</t>
-  </si>
-  <si>
-    <t>0.392+/-0.03</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.293+/-0.008</t>
-  </si>
-  <si>
-    <t>0.291+/-0.025</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.639+/-0.001</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.354+/-0.002</t>
-  </si>
-  <si>
-    <t>0.356+/-0.022</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.371+/-0.006</t>
-  </si>
-  <si>
-    <t>0.372+/-0.017</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.776+/-0.004</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.751+/-0.03</t>
-  </si>
-  <si>
-    <t>0.395+/-0.023</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.287+/-0.038</t>
-  </si>
-  <si>
-    <t>0.148+/-0.027</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>3.524+/-0.699</t>
-  </si>
-  <si>
-    <t>0.809+/-0.004</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.868+/-0.032</t>
-  </si>
-  <si>
-    <t>0.366+/-0.043</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.368+/-0.026</t>
-  </si>
-  <si>
-    <t>0.165+/-0.025</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.085+/-0.013</t>
-  </si>
-  <si>
-    <t>0.794+/-0.005</t>
-  </si>
-  <si>
-    <t>0.696+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.842+/-0.038</t>
-  </si>
-  <si>
-    <t>0.376+/-0.043</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.316+/-0.029</t>
-  </si>
-  <si>
-    <t>0.143+/-0.023</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>0.101+/-0.007</t>
-  </si>
-  <si>
-    <t>0.74+/-0.001</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.788+/-0.015</t>
-  </si>
-  <si>
-    <t>0.647+/-0.105</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.086+/-0.003</t>
-  </si>
-  <si>
-    <t>0.063+/-0.013</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>16.659+/-1.845</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.672+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.424+/-0.036</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.181+/-0.02</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
+    <t>0.099+/-0.003</t>
+  </si>
+  <si>
+    <t>0.753+/-0.005</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.812+/-0.04</t>
+  </si>
+  <si>
+    <t>0.382+/-0.036</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.259+/-0.032</t>
+  </si>
+  <si>
+    <t>0.122+/-0.018</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.138+/-0.003</t>
+  </si>
+  <si>
+    <t>0.705+/-0.001</t>
+  </si>
+  <si>
+    <t>0.697+/-0.0</t>
   </si>
   <si>
     <t>0.696</t>
   </si>
   <si>
-    <t>0.602+/-0.012</t>
-  </si>
-  <si>
-    <t>0.568+/-0.093</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.042+/-0.004</t>
-  </si>
-  <si>
-    <t>0.039+/-0.014</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.077+/-0.022</t>
-  </si>
-  <si>
-    <t>0.646+/-0.004</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.387+/-0.007</t>
-  </si>
-  <si>
-    <t>0.386+/-0.034</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.252+/-0.006</t>
-  </si>
-  <si>
-    <t>0.252+/-0.03</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.633+/-0.003</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.376+/-0.004</t>
-  </si>
-  <si>
-    <t>0.378+/-0.027</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.291+/-0.011</t>
-  </si>
-  <si>
-    <t>0.289+/-0.017</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.733+/-0.008</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.692+/-0.041</t>
-  </si>
-  <si>
-    <t>0.441+/-0.054</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.251+/-0.077</t>
-  </si>
-  <si>
-    <t>0.161+/-0.064</t>
-  </si>
-  <si>
-    <t>0.178</t>
-  </si>
-  <si>
-    <t>2.885+/-0.667</t>
-  </si>
-  <si>
-    <t>0.772+/-0.008</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.821+/-0.019</t>
-  </si>
-  <si>
-    <t>0.377+/-0.045</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.333+/-0.038</t>
-  </si>
-  <si>
-    <t>0.161+/-0.025</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>0.086+/-0.008</t>
-  </si>
-  <si>
-    <t>0.752+/-0.006</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.814+/-0.046</t>
-  </si>
-  <si>
-    <t>0.382+/-0.06</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.257+/-0.034</t>
-  </si>
-  <si>
-    <t>0.122+/-0.021</t>
-  </si>
-  <si>
-    <t>0.117</t>
-  </si>
-  <si>
-    <t>0.113+/-0.003</t>
-  </si>
-  <si>
-    <t>0.706+/-0.001</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.829+/-0.011</t>
-  </si>
-  <si>
-    <t>0.677+/-0.07</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.057+/-0.003</t>
-  </si>
-  <si>
-    <t>0.038+/-0.01</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>21.959+/-2.31</t>
+    <t>0.818+/-0.008</t>
+  </si>
+  <si>
+    <t>0.655+/-0.076</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.053+/-0.002</t>
+  </si>
+  <si>
+    <t>0.035+/-0.012</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>19.474+/-1.534</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -1434,10 +1416,10 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1451,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -1466,10 +1448,10 @@
         <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1480,10 +1462,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -1498,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1512,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1530,10 +1512,10 @@
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1544,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -1562,10 +1544,10 @@
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1576,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -1594,10 +1576,10 @@
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1608,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -1626,10 +1608,10 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1640,7 +1622,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -1658,10 +1640,10 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1672,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -1687,13 +1669,13 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1704,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1719,13 +1701,13 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1775,19 +1757,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>138</v>
@@ -1807,19 +1789,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>139</v>
@@ -1831,7 +1813,7 @@
         <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1839,19 +1821,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
         <v>140</v>
@@ -1863,7 +1845,7 @@
         <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1874,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>113</v>
@@ -1883,7 +1865,7 @@
         <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>141</v>
@@ -1895,7 +1877,7 @@
         <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1906,7 +1888,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>114</v>
@@ -1915,7 +1897,7 @@
         <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
         <v>142</v>
@@ -1927,7 +1909,7 @@
         <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1938,7 +1920,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -1947,7 +1929,7 @@
         <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
         <v>143</v>
@@ -1959,7 +1941,7 @@
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1970,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
@@ -1979,7 +1961,7 @@
         <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
         <v>144</v>
@@ -1991,7 +1973,7 @@
         <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2002,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
@@ -2011,7 +1993,7 @@
         <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -2023,7 +2005,7 @@
         <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2034,7 +2016,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -2043,7 +2025,7 @@
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
@@ -2055,7 +2037,7 @@
         <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2066,16 +2048,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>147</v>
@@ -2087,7 +2069,7 @@
         <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2137,31 +2119,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2169,31 +2151,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2201,31 +2183,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2236,28 +2218,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2271,25 +2253,25 @@
         <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2300,28 +2282,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2332,28 +2314,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2364,28 +2346,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2396,28 +2378,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2428,28 +2410,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2499,31 +2481,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2531,31 +2513,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2563,31 +2545,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2598,28 +2580,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2630,28 +2612,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2662,28 +2644,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2694,28 +2676,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2726,28 +2708,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2758,28 +2740,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2787,31 +2769,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
